--- a/doc/하이캐피탈_펌뱅킹_우리은행_연락처.xlsx
+++ b/doc/하이캐피탈_펌뱅킹_우리은행_연락처.xlsx
@@ -40,6 +40,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>하이캐피탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재경부-전산팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽희성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-3782-6530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9063-4125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsgwak@hicapital.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-3782-6214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011-9666-9852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhkim@hicapital.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KIBNET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,19 +108,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>02-2175-1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>010-3728-3007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lde1009@kibnet.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2175-1105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4273-3625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun3625@kibnet.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>IT-기획부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lde1009@kibnet.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sun3625@kibnet.co.kr</t>
+    <t>김종원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2175-1154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2003-6778</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,107 +160,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반재범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2175-1157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3317-0192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>qkswoqja@kibnet.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매니저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김선화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김종원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반재법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2175-1105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2175-1103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2175-1154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2175-1157</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-4273-3625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2003-6778</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3317-0192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이캐피탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곽희성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재경부-전산팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hsgwak@hicapital.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-3782-6214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yhkim@hicapital.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-3782-6530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9063-4125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011-9666-9852</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -212,6 +212,38 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,12 +253,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -239,11 +286,23 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,182 +603,220 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="33.75">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -734,7 +831,8 @@
     <hyperlink ref="G5" r:id="rId6"/>
     <hyperlink ref="G14" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
 
